--- a/玩法框架.xlsx
+++ b/玩法框架.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修炼" sheetId="1" r:id="rId1"/>
+    <sheet name="经脉" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>修炼可以稳定获取部分资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +66,139 @@
   </si>
   <si>
     <t>感气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手三阴经</t>
+  </si>
+  <si>
+    <t>手太阴肺经</t>
+  </si>
+  <si>
+    <t>手厥阴心包经</t>
+  </si>
+  <si>
+    <t>手少阴心经</t>
+  </si>
+  <si>
+    <t>手三阳经</t>
+  </si>
+  <si>
+    <t>手少阳三焦经</t>
+  </si>
+  <si>
+    <t>手太阳小肠经</t>
+  </si>
+  <si>
+    <t>足三阴经</t>
+  </si>
+  <si>
+    <t>足太阴脾经</t>
+  </si>
+  <si>
+    <t>足厥阴肝经</t>
+  </si>
+  <si>
+    <t>足少阴肾经</t>
+  </si>
+  <si>
+    <t>足三阳经</t>
+  </si>
+  <si>
+    <t>足阳明胃经</t>
+  </si>
+  <si>
+    <t>足少阳胆经</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经</t>
+  </si>
+  <si>
+    <t>手阳明大肠经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳维脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴维脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳跷脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴跷脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手太阴肺经-金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手阳明大肠经-金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足厥阴肝经-木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足少阳胆经-木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手少阴心经-火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手太阳小肠经-火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足少阴肾经-水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足太阳膀胱经-水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足太阴脾经-土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足阳明胃经-土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手厥阴心包经-无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手少阳三焦经-无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +242,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,11 +269,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,4 +659,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>